--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
+++ b/StructureDefinition-HivElevatedHivAcquisitionRiskCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
